--- a/biology/Botanique/Sauce_aigre-douce/Sauce_aigre-douce.xlsx
+++ b/biology/Botanique/Sauce_aigre-douce/Sauce_aigre-douce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sauce aigre-douce ou sauce à l'aigre-douce est une sauce à la tomate, qui peut accompagner généralement tous les types de plats salés. Il en existe plusieurs variantes.
 </t>
@@ -511,10 +523,12 @@
           <t>L'aigre-doux en France métropolitaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'on rencontre nombre de plats dits « créoles » ou « asiatiques » à la sauce aigre-douce, il en existe aussi certains en France métropolitaine.
-En France, en effet, le simple fait d'associer salé et sucré peut obtenir la dénomination d'aigre-doux. Il en est ainsi du canard à l'orange, du lapin au cidre picard et des mourgates (calamars bretons) sauce aigre-douce[1], ou encore du boudin noir, grillé et accompagné d'ananas ou de pommes. À noter que la tomate n'entre dans aucune des recettes sus-citées.
+En France, en effet, le simple fait d'associer salé et sucré peut obtenir la dénomination d'aigre-doux. Il en est ainsi du canard à l'orange, du lapin au cidre picard et des mourgates (calamars bretons) sauce aigre-douce, ou encore du boudin noir, grillé et accompagné d'ananas ou de pommes. À noter que la tomate n'entre dans aucune des recettes sus-citées.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Tradition créole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'autres plats sont issus d'une longue tradition d'immigration, créole ou étrangère, dans une région donnée. Ainsi en va t-il de la « taupe coco-curry », dans le sud de la France, qui associe la chair de requin-taupe à une sauce au lait de coco et au curry, issue des Mascareignes et des Comores.
 </t>
